--- a/biology/Zoologie/Calamostoma/Calamostoma.xlsx
+++ b/biology/Zoologie/Calamostoma/Calamostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamostoma breviculum
 Calamostoma est un genre fossile de petits poissons osseux marins.
@@ -513,10 +525,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il appartient  à l'ordre des Syngnathiformes et vraisemblablement au sous-ordre des Syngnathoidei ; il parait proche des Solenostomidae et des syngnathes actuels[1],[2].
-Le nom binominal de Calamostoma lesiniforme n'est plus utilisé aujourd'hui[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il appartient  à l'ordre des Syngnathiformes et vraisemblablement au sous-ordre des Syngnathoidei ; il parait proche des Solenostomidae et des syngnathes actuels,.
+Le nom binominal de Calamostoma lesiniforme n'est plus utilisé aujourd'hui,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Découverte et datation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles bien préservés de Calamostoma breviculum ont été découverts sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca sur la zone dite de « Pesciara », en Vénétie (Italie). Calamostoma a vécu dans les lagons tropicaux de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 49 et 48,5 Ma (millions d'années)[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles bien préservés de Calamostoma breviculum ont été découverts sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca sur la zone dite de « Pesciara », en Vénétie (Italie). Calamostoma a vécu dans les lagons tropicaux de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 49 et 48,5 Ma (millions d'années),.
 L'environnement péri-récifal tropical de l'Éocène du Monte Bolca est sous influence à la fois côtière et de mer ouverte. Dans cet environnement, les fossiles ont été préservés dans des sédiments calcaires laminés, déposés dans une dépression à faible énergie, sous un environnement anoxique.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit poisson plutôt petit d'environ 12 centimètres de long, de forme élancée, avec un corps couvert de plaques osseuses. Sa tête est étroite avec de grands yeux, un long museau de forme tubulaire, avec une très petite ouverture buccale. Il possède deux nageoires dorsales. Sa nageoire anale et ses nageoires pelviennes sont de taille limitée, tandis que ses nageoires pectorales sont un peu plus grandes. La nageoire caudale est relativement grande, non divisée en lobes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit poisson plutôt petit d'environ 12 centimètres de long, de forme élancée, avec un corps couvert de plaques osseuses. Sa tête est étroite avec de grands yeux, un long museau de forme tubulaire, avec une très petite ouverture buccale. Il possède deux nageoires dorsales. Sa nageoire anale et ses nageoires pelviennes sont de taille limitée, tandis que ses nageoires pectorales sont un peu plus grandes. La nageoire caudale est relativement grande, non divisée en lobes.
 Calamostoma ressemble globalement aux Solenostomidae et aux Syngnathidae d'aujourd'hui. Ces derniers rassemblent les hippocampes et les syngnathes, les premiers ont une position de vie verticale, tandis que les seconds, dont il semble plus proche, ont une posture horizontale comme la quasi-totalité des poissons.
 C'est l'un des nombreux genres de Syngnathiformes qui vivait dans l'environnement péri-récifal et peu profond de l’Éocène du Monte Bolca. Il se nourrissait vraisemblablement de zooplancton dans les récifs ou les herbiers marins.
 </t>
